--- a/Data/Conference Call Bingo.xlsx
+++ b/Data/Conference Call Bingo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\GitHub\SASsy_Bingo\Programs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\GitHub\SASsy_Bingo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D23024F-286B-41C1-9A8D-6018A3069B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809EFB34-B75C-4314-BEFE-59EE20AC84FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{43A51613-CB0B-46B7-A958-F76A4C4C4A6E}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>I don't think ___ is on the call</t>
   </si>
   <si>
-    <t>Uh, ___, you're still sharing…</t>
-  </si>
-  <si>
     <t>I have to jump to another call</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Please mute your computer sound</t>
   </si>
   <si>
-    <t>&lt;Someone typing … possibly with a hammer - speed typer or forceful key strokes&gt;</t>
-  </si>
-  <si>
     <t>Next slide, please</t>
   </si>
   <si>
@@ -98,18 +92,12 @@
     <t xml:space="preserve">Close your eyes if scrolling makes you dizzy? </t>
   </si>
   <si>
-    <t>(for overtalkers)…Sorry, go ahead.</t>
-  </si>
-  <si>
     <t>Can we take this offline?</t>
   </si>
   <si>
     <t>I'm sorry, you cut out there.</t>
   </si>
   <si>
-    <t>I have a hard stop at …</t>
-  </si>
-  <si>
     <t>Sorry I'm late (insert excuse)</t>
   </si>
   <si>
@@ -140,9 +128,6 @@
     <t>Can you grant me permission to share?</t>
   </si>
   <si>
-    <t>Let me share my screen instead…can you stop sharing?</t>
-  </si>
-  <si>
     <t>Can you please grant me access to the meeting?</t>
   </si>
   <si>
@@ -215,9 +200,6 @@
     <t>Someone is on chat saying they can't hear us.</t>
   </si>
   <si>
-    <t>You still there? …&lt;You can hear them but they can't hear you&gt; Panick ensues you send IMs and text message and chats</t>
-  </si>
-  <si>
     <t>Excuse me! Are you talking to us? &lt;Someone holding a conversation not pertaining to conference call&gt;</t>
   </si>
   <si>
@@ -227,12 +209,6 @@
     <t>Can we set up a meeting to discuss?</t>
   </si>
   <si>
-    <t xml:space="preserve">I am giving you xx minutes back to your day. </t>
-  </si>
-  <si>
-    <t>We only have a few minutes left…Someone brings up a topic that causes the meeting to run over.</t>
-  </si>
-  <si>
     <t>I love you! I love you! I love you! &lt;or some other form of affection&gt; &lt;child or pet comes in begging for attention so you give it to them&gt;</t>
   </si>
   <si>
@@ -245,9 +221,6 @@
     <t>Sorry! The cat muted me.</t>
   </si>
   <si>
-    <t>Can you email…that to everyone?</t>
-  </si>
-  <si>
     <t>Make me host</t>
   </si>
   <si>
@@ -257,9 +230,6 @@
     <t>I guess we should go ahead and get started.</t>
   </si>
   <si>
-    <t>Person 1: I can barely hear you… Person 2: How is this? … How about now?  … Person 1: Much better.</t>
-  </si>
-  <si>
     <t>Whoa, zoom bomb!</t>
   </si>
   <si>
@@ -270,6 +240,36 @@
   </si>
   <si>
     <t>uh huh (feigning interest)</t>
+  </si>
+  <si>
+    <t>Can you email that to everyone?</t>
+  </si>
+  <si>
+    <t>Uh, ___, you're still sharing</t>
+  </si>
+  <si>
+    <t>&lt;Someone typing - possibly with a hammer - speed typer or forceful key strokes&gt;</t>
+  </si>
+  <si>
+    <t>(for overtalkers) Sorry, go ahead.</t>
+  </si>
+  <si>
+    <t>I have a hard stop at X</t>
+  </si>
+  <si>
+    <t>Let me share my screen instead. Can you stop sharing?</t>
+  </si>
+  <si>
+    <t>You still there? &lt;You can hear them but they can't hear you&gt; Panick ensues you send IMs and text message and chats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am giving you XX minutes back to your day. </t>
+  </si>
+  <si>
+    <t>We only have a few minutes left. &lt;Someone brings up a topic that causes the meeting to run over.&gt;</t>
+  </si>
+  <si>
+    <t>Person 1: I can barely hear you.   Person 2: How is this?  How about now?   Person 1: Much better.</t>
   </si>
 </sst>
 </file>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED031A0-D5E4-4117-BF45-CE4BF91D67E9}">
   <dimension ref="A1:A79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,7 +649,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -659,7 +659,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
@@ -674,372 +674,372 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
